--- a/applicationMVC/QLBD.xlsx
+++ b/applicationMVC/QLBD.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="346">
   <si>
     <t>Mã Đơn</t>
   </si>
@@ -230,6 +230,42 @@
     <t>462000.0000</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49d12345</t>
+  </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>11049.0000</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>49a12345</t>
+  </si>
+  <si>
+    <t>Phạm Văn Minh</t>
+  </si>
+  <si>
+    <t>165049.0000</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>51d2345</t>
+  </si>
+  <si>
+    <t>15/06/2021</t>
+  </si>
+  <si>
+    <t>11000.0000</t>
+  </si>
+  <si>
     <t>Mã Dịch Vụ</t>
   </si>
   <si>
@@ -599,9 +635,6 @@
     <t>DH</t>
   </si>
   <si>
-    <t>Phạm Văn Minh</t>
-  </si>
-  <si>
     <t>234234234</t>
   </si>
   <si>
@@ -611,6 +644,36 @@
     <t>02/11/1988</t>
   </si>
   <si>
+    <t>Doan1</t>
+  </si>
+  <si>
+    <t>243546734</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>0987875845</t>
+  </si>
+  <si>
+    <t>01/01/2021</t>
+  </si>
+  <si>
+    <t>Không</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đoan</t>
+  </si>
+  <si>
+    <t>251247545</t>
+  </si>
+  <si>
+    <t>0911711911</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
     <t>Tên Tài Khoản</t>
   </si>
   <si>
@@ -623,12 +686,15 @@
     <t>Tên Quyền</t>
   </si>
   <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>Quản Lý</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Quản Lý</t>
-  </si>
-  <si>
     <t>doan</t>
   </si>
   <si>
@@ -848,6 +914,15 @@
     <t>0345453544</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>đona</t>
+  </si>
+  <si>
+    <t>0987878789</t>
+  </si>
+  <si>
     <t>Biển Số</t>
   </si>
   <si>
@@ -975,6 +1050,12 @@
   </si>
   <si>
     <t>03/10/2021 00:00:00.000</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>14/06/2021 14:16:29.000</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1541,6 +1622,66 @@
       </c>
       <c r="F19" t="s" s="2">
         <v>69</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1566,1150 +1707,1150 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="3">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s" s="3">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s" s="3">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="3">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s" s="4">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s" s="4">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s" s="4">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s" s="4">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="4">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s" s="4">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="4">
         <v>20</v>
       </c>
       <c r="D7" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="4">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s" s="4">
         <v>20</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s" s="4">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="4">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="E9" t="s" s="4">
         <v>88</v>
       </c>
-      <c r="B9" t="s" s="4">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s" s="4">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>90</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>76</v>
-      </c>
       <c r="F9" t="s" s="4">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="4">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s" s="4">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D11" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="4">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D12" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s" s="4">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="4">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D13" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s" s="4">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="4">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D14" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s" s="4">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="4">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D15" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s" s="4">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s" s="4">
         <v>25</v>
       </c>
       <c r="D16" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="4">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s" s="4">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="4">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s" s="4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="4">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="4">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="4">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s" s="4">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s" s="4">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="4">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="4">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s" s="4">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D22" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s" s="4">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s" s="4">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s" s="4">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s" s="4">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s" s="4">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s" s="4">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s" s="4">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s" s="4">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D30" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s" s="4">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s" s="4">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s" s="4">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s" s="4">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s" s="4">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s" s="4">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s" s="4">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s" s="4">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s" s="4">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s" s="4">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s" s="4">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s" s="4">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s" s="4">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E43" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s" s="4">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E44" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s" s="4">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s" s="4">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B46" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s" s="4">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B47" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s" s="4">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s" s="4">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D49" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B50" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s" s="4">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s" s="4">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s" s="4">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s" s="4">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s" s="4">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s" s="4">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B53" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="4">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s" s="4">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s" s="4">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s" s="4">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s" s="4">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E56" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s" s="4">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s" s="4">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s" s="4">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s" s="4">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="4">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s" s="4">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s" s="4">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s" s="4">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
@@ -2717,17 +2858,17 @@
         <v>6</v>
       </c>
       <c r="B59" t="s" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s" s="4">
         <v>11</v>
       </c>
       <c r="D59" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
@@ -2735,19 +2876,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s" s="4">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F60" t="s" s="4">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61">
@@ -2755,19 +2896,19 @@
         <v>6</v>
       </c>
       <c r="B61" t="s" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s" s="4">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E61" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F61" t="s" s="4">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62">
@@ -2775,197 +2916,197 @@
         <v>6</v>
       </c>
       <c r="B62" t="s" s="4">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s" s="4">
         <v>11</v>
       </c>
       <c r="D62" t="s" s="4">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F62" t="s" s="4">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s" s="4">
         <v>20</v>
       </c>
       <c r="D63" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" t="s" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s" s="4">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F64" t="s" s="4">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s" s="4">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D65" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F65" t="s" s="4">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s" s="4">
         <v>20</v>
       </c>
       <c r="D66" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F66" t="s" s="4">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s" s="4">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F67" t="s" s="4">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s" s="4">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D68" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s" s="4">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s" s="4">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s" s="4">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s" s="4">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s" s="4">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s" s="4">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s" s="4">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D70" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s" s="4">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="4">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B71" t="s" s="4">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s" s="4">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D71" t="s" s="4">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s" s="4">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s" s="4">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2975,14 +3116,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.01953125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.57421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="16.90234375" customWidth="true" bestFit="true"/>
@@ -2992,25 +3133,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="5">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s" s="5">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s" s="5">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s" s="5">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E1" t="s" s="5">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F1" t="s" s="5">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G1" t="s" s="5">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -3021,19 +3162,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s" s="6">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s" s="6">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -3041,22 +3182,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s" s="6">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s" s="6">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s" s="6">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s" s="6">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4">
@@ -3064,22 +3205,68 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s" s="6">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s" s="6">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s" s="6">
-        <v>192</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="6">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s" s="6">
+        <v>209</v>
+      </c>
+      <c r="D5" t="s" s="6">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s" s="6">
+        <v>212</v>
+      </c>
+      <c r="G5" t="s" s="6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>215</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s" s="6">
+        <v>217</v>
+      </c>
+      <c r="G6" t="s" s="6">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3089,7 +3276,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3097,78 +3284,92 @@
   <cols>
     <col min="1" max="1" width="17.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.36328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="13.66796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="7">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s" s="7">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s" s="7">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s" s="7">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="8">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="B2" t="n" s="8">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" t="s" s="8">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s" s="8">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="8">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="B3" t="n" s="8">
         <v>3.0</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="8">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B4" t="n" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" t="s" s="8">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s" s="8">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="8">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B5" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="8">
+        <v>228</v>
+      </c>
+      <c r="B6" t="n" s="8">
         <v>2.0</v>
       </c>
-      <c r="C5" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="D5" t="s" s="8">
-        <v>204</v>
+      <c r="C6" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3379,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3192,114 +3393,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="9">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s" s="9">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s" s="9">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s" s="9">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="10">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s" s="10">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s" s="10">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="10">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s" s="10">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s" s="10">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="10">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s" s="10">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="10">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="10">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="10">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="10">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s" s="10">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
@@ -3307,13 +3508,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
@@ -3321,181 +3522,181 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C14" t="s" s="10">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s" s="10">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s" s="10">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s" s="10">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s" s="10">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="10">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s" s="10">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="10">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s" s="10">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C20" t="s" s="10">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C21" t="s" s="10">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s" s="10">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
@@ -3503,13 +3704,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s" s="10">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s" s="10">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
@@ -3517,13 +3718,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s" s="10">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -3531,13 +3732,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s" s="10">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s" s="10">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
@@ -3545,13 +3746,13 @@
         <v>32</v>
       </c>
       <c r="B26" t="s" s="10">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C26" t="s" s="10">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
@@ -3559,27 +3760,27 @@
         <v>36</v>
       </c>
       <c r="B27" t="s" s="10">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s" s="10">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B28" t="s" s="10">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s" s="10">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D28" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29">
@@ -3587,27 +3788,27 @@
         <v>39</v>
       </c>
       <c r="B29" t="s" s="10">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="C29" t="s" s="10">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="10">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="10">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31">
@@ -3615,13 +3816,27 @@
         <v>43</v>
       </c>
       <c r="B31" t="s" s="10">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s" s="10">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>183</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="10">
+        <v>298</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>299</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>300</v>
+      </c>
+      <c r="D32" t="s" s="10">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3631,7 +3846,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3645,16 +3860,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="11">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="11">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s" s="11">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="D1" t="s" s="11">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
@@ -3662,69 +3877,69 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s" s="12">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="12">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s" s="12">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="12">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="12">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="12">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s" s="12">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -3732,55 +3947,55 @@
         <v>7</v>
       </c>
       <c r="B7" t="s" s="12">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="12">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s" s="12">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="12">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s" s="12">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="12">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s" s="12">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s" s="12">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -3788,13 +4003,13 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s" s="12">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -3803,66 +4018,78 @@
       </c>
       <c r="B12" s="12"/>
       <c r="C12" t="s" s="12">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="D12" t="s" s="12">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="12">
-        <v>291</v>
-      </c>
-      <c r="B13" t="s" s="12">
-        <v>292</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="C13" t="s" s="12">
-        <v>211</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="12">
-        <v>59</v>
+        <v>316</v>
       </c>
       <c r="B14" t="s" s="12">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D14" t="s" s="12">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="12">
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="12">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s" s="12">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="12">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B16" t="s" s="12">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D16" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="12">
+        <v>320</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>258</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s" s="12">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3872,7 +4099,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3888,42 +4115,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="13">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s" s="13">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s" s="13">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s" s="13">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="E1" t="s" s="13">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F1" t="s" s="13">
-        <v>301</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="14">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="14">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="C2" t="n" s="14">
         <v>15.0</v>
       </c>
       <c r="D2" t="s" s="14">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s" s="14">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s" s="14">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -3931,79 +4158,99 @@
         <v>6</v>
       </c>
       <c r="B3" t="s" s="14">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C3" t="n" s="14">
         <v>4.0</v>
       </c>
       <c r="D3" t="s" s="14">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s" s="14">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s" s="14">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="14">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="14">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C4" t="n" s="14">
         <v>3.0</v>
       </c>
       <c r="D4" t="s" s="14">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s" s="14">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s" s="14">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="14">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s" s="14">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C5" t="n" s="14">
         <v>1.0</v>
       </c>
       <c r="D5" t="s" s="14">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="E5" t="s" s="14">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F5" t="s" s="14">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="14">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s" s="14">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C6" t="n" s="14">
         <v>0.0</v>
       </c>
       <c r="D6" t="s" s="14">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s" s="14">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s" s="14">
-        <v>318</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="14">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>225</v>
+      </c>
+      <c r="C7" t="n" s="14">
+        <v>3.0</v>
+      </c>
+      <c r="D7" t="s" s="14">
+        <v>344</v>
+      </c>
+      <c r="E7" t="s" s="14">
+        <v>329</v>
+      </c>
+      <c r="F7" t="s" s="14">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
